--- a/KUtil/KMM1_MR01/sample_mast.xlsx
+++ b/KUtil/KMM1_MR01/sample_mast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\Koin\KUtil\KMM1_MR01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zDisk\github\Koin\KUtil\KMM1_MR01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E84AB804-43BB-4019-B77D-1AA73C187549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFDFC091-EBD4-4609-A216-8BB03E84884F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00494FCF-5554-4FC6-943B-BDD76BA2F6D7}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="18900" windowHeight="10965" xr2:uid="{177D0678-46E4-4525-902B-4EFA8DCEE2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="page 1" sheetId="1" r:id="rId1"/>
@@ -1764,10 +1764,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E9FCBF-5D00-48AA-833C-5C979EB0C022}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD485AB-FFD3-436F-BF70-D26F29D13B2A}">
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A46" sqref="A46:I61"/>
     </sheetView>
   </sheetViews>
@@ -3517,7 +3517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA8451D-9BD2-4727-8F9A-E1305C163CDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3826F7E-BF02-415B-8436-02BC772CDFE3}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4088,11 +4088,12 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34B65B5-95F2-41F0-95CC-9436C9D18FF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264329AB-2296-480C-A2BE-3C70A80BA05B}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
